--- a/src/test/resources/testdata/TOHO3.xlsx
+++ b/src/test/resources/testdata/TOHO3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9DA42A-A6C2-4AB4-9CF6-51532AD9A0CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B490A4-F69D-4ACB-B551-40FB94C659CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>33837</t>
   </si>
   <si>
-    <t>07302023</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Standard</t>
+  </si>
+  <si>
+    <t>08302023</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,75 +528,75 @@
         <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L2" s="5">
         <v>2022</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L3" s="5">
         <v>2022</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/TOHO3.xlsx
+++ b/src/test/resources/testdata/TOHO3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B490A4-F69D-4ACB-B551-40FB94C659CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A3E1ED-619D-4BD4-81A8-ADAA1E543AAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>
@@ -121,7 +121,22 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>08302023</t>
+    <t>01182024</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>ivans-test</t>
+  </si>
+  <si>
+    <t>ivans-test2</t>
+  </si>
+  <si>
+    <t>ivans-test3</t>
+  </si>
+  <si>
+    <t>ivans-test4</t>
   </si>
 </sst>
 </file>
@@ -459,15 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +529,11 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -554,8 +576,11 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -597,6 +622,103 @@
       </c>
       <c r="N3" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2022</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
